--- a/Uji Coba/grafik_5kalicoba.xlsx
+++ b/Uji Coba/grafik_5kalicoba.xlsx
@@ -12,7 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="waktu" sheetId="1" r:id="rId1"/>
+    <sheet name="RAM" sheetId="2" r:id="rId2"/>
+    <sheet name="Processor" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,22 +26,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>Row</t>
   </si>
   <si>
     <t>Tabel</t>
   </si>
+  <si>
+    <t>insert</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>tabel</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +68,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -77,10 +102,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -206,7 +233,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$7</c:f>
+              <c:f>waktu!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -241,11 +268,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1926014192"/>
-        <c:axId val="-1926019088"/>
+        <c:axId val="454791536"/>
+        <c:axId val="454794256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1926014192"/>
+        <c:axId val="454791536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -272,7 +299,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="id-ID"/>
-                  <a:t>Percobaan ke-</a:t>
+                  <a:t>Nomor percobaan</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -343,7 +370,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1926019088"/>
+        <c:crossAx val="454794256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -351,7 +378,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1926019088"/>
+        <c:axId val="454794256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -458,7 +485,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1926014192"/>
+        <c:crossAx val="454791536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -613,9 +640,33 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>waktu!$A$20:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$20:$B$24</c:f>
+              <c:f>waktu!$B$20:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -650,17 +701,1054 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1926009216"/>
-        <c:axId val="-1925998880"/>
+        <c:axId val="454804048"/>
+        <c:axId val="454802416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1926009216"/>
+        <c:axId val="454804048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="id-ID"/>
+                  <a:t>Jumlah Tabel</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454802416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="454802416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="id-ID"/>
+                  <a:t>Waktu transformasi (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454804048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>waktu!$B$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>insert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>waktu!$A$42:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>waktu!$B$42:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.5180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.247999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.244400000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.333600000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>waktu!$C$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>update</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>waktu!$A$42:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>waktu!$C$42:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>43.129799999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.049799999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115.6618</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>151.02820000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>189.76359999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>waktu!$D$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>delete</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>waktu!$A$42:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>waktu!$D$42:$D$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.9955999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.105599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.8264</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.169400000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.250799999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="454790448"/>
+        <c:axId val="454795888"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="454790448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="id-ID"/>
+                  <a:t>Jumlah</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="id-ID" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="id-ID" i="1" baseline="0"/>
+                  <a:t>query</a:t>
+                </a:r>
+                <a:endParaRPr lang="id-ID" i="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454795888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="454795888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="id-ID"/>
+                  <a:t>Waktu transformasi (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454790448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>RAM!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2907.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3017.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3004.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3097.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3143.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="247312336"/>
+        <c:axId val="247311248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="247312336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="id-ID"/>
+                  <a:t>Nomor Percobaan</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -727,7 +1815,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1925998880"/>
+        <c:crossAx val="247311248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -735,7 +1823,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1925998880"/>
+        <c:axId val="247311248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -756,6 +1844,1911 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="id-ID"/>
+                  <a:t>Memori terpakai (MB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="247312336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>RAM!$A$21:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RAM!$B$21:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2907.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3148.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3289.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3489</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3523.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="247304176"/>
+        <c:axId val="247298736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="247304176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="id-ID"/>
+                  <a:t>Jumlah tabel</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="247298736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="247298736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="id-ID"/>
+                  <a:t>Memori terpakai (MB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="247304176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RAM!$B$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>insert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>RAM!$A$41:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RAM!$B$41:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1990.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2286.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2582.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2633.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RAM!$C$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>update</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>RAM!$A$41:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RAM!$C$41:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2186.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2252</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2532.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2642.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2705.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RAM!$D$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>delete</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>RAM!$A$41:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RAM!$D$41:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2291.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2213</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2492.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2591.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2694.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="397757632"/>
+        <c:axId val="397760896"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="397757632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="id-ID"/>
+                  <a:t>Jumlah </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="id-ID" i="1"/>
+                  <a:t>query</a:t>
+                </a:r>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397760896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="397760896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="id-ID"/>
+                  <a:t>Memori terpakai (MB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397757632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Processor!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>49.665000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.085000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.885000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.684999999999988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.544999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="588216176"/>
+        <c:axId val="588211280"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="588216176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="id-ID"/>
+                  <a:t>Nomor</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="id-ID" baseline="0"/>
+                  <a:t> percobaan</a:t>
+                </a:r>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588211280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="588211280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="id-ID"/>
+                  <a:t>Persentase processor (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588216176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Processor!$A$21:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Processor!$B$21:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>49.665000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.395000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.295000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="588222160"/>
+        <c:axId val="588219440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="588222160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="id-ID"/>
+                  <a:t>Jumlah tabel</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588219440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="588219440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="id-ID"/>
+                  <a:t>Persentase processor (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -817,7 +3810,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1926009216"/>
+        <c:crossAx val="588222160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -829,6 +3822,604 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Processor!$B$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>insert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Processor!$A$41:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Processor!$B$41:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>59.975000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.345000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.774999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Processor!$C$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>update</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Processor!$A$41:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Processor!$C$41:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>23.139999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.625000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.475000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.435000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Processor!$D$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>delete</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Processor!$A$41:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Processor!$D$41:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>24.285000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.414999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.989999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="588217264"/>
+        <c:axId val="588219984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="588217264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="id-ID"/>
+                  <a:t>Jumlah </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="id-ID" i="1"/>
+                  <a:t>query</a:t>
+                </a:r>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588219984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="588219984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="id-ID"/>
+                  <a:t>Persentase processor (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588217264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -946,6 +4537,277 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1450,6 +5312,3527 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2009,6 +9392,226 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>547687</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2280,10 +9883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B24"/>
+  <dimension ref="A2:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2378,6 +9981,511 @@
         <v>137.381</v>
       </c>
     </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1000</v>
+      </c>
+      <c r="B42" s="2">
+        <v>8.5180000000000007</v>
+      </c>
+      <c r="C42" s="2">
+        <v>43.129799999999996</v>
+      </c>
+      <c r="D42" s="2">
+        <v>9.9955999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2000</v>
+      </c>
+      <c r="B43" s="2">
+        <v>14.247999999999999</v>
+      </c>
+      <c r="C43" s="2">
+        <v>84.049799999999991</v>
+      </c>
+      <c r="D43" s="2">
+        <v>19.105599999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>3000</v>
+      </c>
+      <c r="B44" s="2">
+        <v>22.244400000000002</v>
+      </c>
+      <c r="C44" s="2">
+        <v>115.6618</v>
+      </c>
+      <c r="D44" s="2">
+        <v>27.8264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>4000</v>
+      </c>
+      <c r="B45" s="2">
+        <v>30.54</v>
+      </c>
+      <c r="C45" s="2">
+        <v>151.02820000000003</v>
+      </c>
+      <c r="D45" s="2">
+        <v>38.169400000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>5000</v>
+      </c>
+      <c r="B46" s="2">
+        <v>41.333600000000004</v>
+      </c>
+      <c r="C46" s="2">
+        <v>189.76359999999997</v>
+      </c>
+      <c r="D46" s="2">
+        <v>50.250799999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="2">
+        <f>AVERAGE(B42:B46)</f>
+        <v>23.376799999999999</v>
+      </c>
+      <c r="C48" s="2">
+        <f t="shared" ref="C48:D48" si="0">AVERAGE(C42:C46)</f>
+        <v>116.72664</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" si="0"/>
+        <v>29.069560000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2907.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3017.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3004.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3097.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3143.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2907.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" s="4">
+        <v>3148.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23" s="4">
+        <v>3289.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>12</v>
+      </c>
+      <c r="B24" s="4">
+        <v>3489</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>15</v>
+      </c>
+      <c r="B25" s="4">
+        <v>3523.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1000</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1990</v>
+      </c>
+      <c r="C41" s="4">
+        <v>2186.8000000000002</v>
+      </c>
+      <c r="D41" s="4">
+        <v>2291.1999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2000</v>
+      </c>
+      <c r="B42" s="4">
+        <v>1990.8</v>
+      </c>
+      <c r="C42" s="4">
+        <v>2252</v>
+      </c>
+      <c r="D42" s="4">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3000</v>
+      </c>
+      <c r="B43" s="4">
+        <v>2286.8000000000002</v>
+      </c>
+      <c r="C43" s="4">
+        <v>2532.1999999999998</v>
+      </c>
+      <c r="D43" s="4">
+        <v>2492.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4000</v>
+      </c>
+      <c r="B44" s="4">
+        <v>2582.6</v>
+      </c>
+      <c r="C44" s="4">
+        <v>2642.6</v>
+      </c>
+      <c r="D44" s="4">
+        <v>2591.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>5000</v>
+      </c>
+      <c r="B45" s="4">
+        <v>2633.2</v>
+      </c>
+      <c r="C45" s="4">
+        <v>2705.6</v>
+      </c>
+      <c r="D45" s="4">
+        <v>2694.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>49.665000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>47.085000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>49.885000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>51.684999999999988</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>53.544999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" s="2">
+        <v>49.665000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44.76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23" s="2">
+        <v>48.395000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2">
+        <v>55.21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>15</v>
+      </c>
+      <c r="B25" s="2">
+        <v>42.295000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f>AVERAGE(B3:B25)</f>
+        <v>49.218999999999994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1000</v>
+      </c>
+      <c r="B41" s="2">
+        <v>59.975000000000001</v>
+      </c>
+      <c r="C41" s="2">
+        <v>23.139999999999997</v>
+      </c>
+      <c r="D41" s="2">
+        <v>24.285000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2000</v>
+      </c>
+      <c r="B42" s="2">
+        <v>48.69</v>
+      </c>
+      <c r="C42" s="2">
+        <v>20.12</v>
+      </c>
+      <c r="D42" s="2">
+        <v>53.569999999999993</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3000</v>
+      </c>
+      <c r="B43" s="2">
+        <v>52.345000000000006</v>
+      </c>
+      <c r="C43" s="2">
+        <v>21.625000000000004</v>
+      </c>
+      <c r="D43" s="2">
+        <v>56.414999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4000</v>
+      </c>
+      <c r="B44" s="2">
+        <v>48.774999999999999</v>
+      </c>
+      <c r="C44" s="2">
+        <v>22.475000000000001</v>
+      </c>
+      <c r="D44" s="2">
+        <v>44.989999999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>5000</v>
+      </c>
+      <c r="B45" s="2">
+        <v>46.68</v>
+      </c>
+      <c r="C45" s="2">
+        <v>19.435000000000002</v>
+      </c>
+      <c r="D45" s="2">
+        <v>43.77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <f>AVERAGE(B41:B45)</f>
+        <v>51.292999999999992</v>
+      </c>
+      <c r="C47" s="2">
+        <f t="shared" ref="C47:D47" si="0">AVERAGE(C41:C45)</f>
+        <v>21.359000000000002</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="0"/>
+        <v>44.606000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
